--- a/수업/Scientific Writing/00 Summer F&T assign 2018.xlsx
+++ b/수업/Scientific Writing/00 Summer F&T assign 2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Writing Fig and Tbl Assigns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NBTP_Lab\수업\Scientific Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47C4B9C-089F-4F85-95B3-0CA1301630E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="16260" windowHeight="5832" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="30" windowWidth="16260" windowHeight="5835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <sheet name="Table I" sheetId="6" r:id="rId6"/>
     <sheet name="Table II" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <r>
       <t xml:space="preserve">Include error bars that represent </t>
@@ -53,7 +52,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,7 +62,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +101,393 @@
   </si>
   <si>
     <t>The organic layer was one of two chemicals (PMO:PSS and MSL:K1).</t>
+  </si>
+  <si>
+    <t>(mg/L)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ln</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mean length) on concentration for both solutions on the same graph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You repeated this test eight times for each length of time, then and measured the thickness [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m] of the layer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plot average thickness vs. temperature.</t>
+  </si>
+  <si>
+    <t>Include best regression line for the relationship.</t>
+  </si>
+  <si>
+    <t>State sample sizes and what the error bars represent.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <r>
+      <t>You grew a Silver layer on an SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> substrate by sputtering silver over a range of vacuum presssures [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Torr].</t>
+    </r>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Torr]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ZnO]</t>
+  </si>
+  <si>
+    <t>ZnO concentrations ('[ZnO]') were varied.</t>
+  </si>
+  <si>
+    <t>You repeated each combination eight times.</t>
+  </si>
+  <si>
+    <t>Provide a table that presents mean and standard deviation of the time required for each combination.</t>
+  </si>
+  <si>
+    <t>Include overall means and standard deviations for Processors and Algorithms.</t>
+  </si>
+  <si>
+    <t>Sort the table to put the fastest algorithm in the left column and the fastest processor in the top row.</t>
+  </si>
+  <si>
+    <t>Provide a complete caption.</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <r>
+      <t>You measured time (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s) required to encrypt a test message using combinations of four algorithms on three processors.</t>
+    </r>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>masque</t>
+  </si>
+  <si>
+    <t>exRay</t>
+  </si>
+  <si>
+    <t>Bint</t>
+  </si>
+  <si>
+    <t>Talj</t>
+  </si>
+  <si>
+    <t>Euwe</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Sort the table to put the fastest processor in the left column and the fastest algorithm in the top row.</t>
+  </si>
+  <si>
+    <t>You measured time (ms) required to calculate the Moore-Penrose pseudo-inverse of a 4 x 7 matrix using combinations of four algorithms on three processors.</t>
+  </si>
+  <si>
+    <t>Bogart</t>
+  </si>
+  <si>
+    <t>Gable</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Heaviside</t>
+  </si>
+  <si>
+    <t>Steinmetz</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Calculate [ZnO] at which the average crystal length was the same.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ln</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(capacitance) vs thickness for both capacitors on the same graph.</t>
+    </r>
+  </si>
+  <si>
+    <t>You have measured the power output [mW]of an experimental electrical generator at different rotation speeds [kHz].</t>
+  </si>
+  <si>
+    <t>Calculate the pressure at which average thickness was the greatest.</t>
+  </si>
+  <si>
+    <t>Power output [W]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You Grew Zinc oxide (ZnO) nanorods in two types of solutions of ZnO in ethanol at 194 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C.</t>
+    </r>
+  </si>
+  <si>
+    <t>The solutions' names are 'Tal' and 'Nezh'.</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Nezh</t>
+  </si>
+  <si>
+    <t>You allowed the nanorods to grow for 8 h</t>
+  </si>
+  <si>
+    <t>You  measured the change in capacitance [nF] of two experimental organic capacitors as the thickness [nm] of the organic layer increased.</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The process was conducted at 38 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The process was conducted at 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C.</t>
+    </r>
+  </si>
+  <si>
+    <t>If your student number is ODD, do</t>
+  </si>
+  <si>
+    <t>If your student number is EVEN, do</t>
+  </si>
+  <si>
+    <t>Fig. 3</t>
+  </si>
+  <si>
+    <t>Fig. 1</t>
+  </si>
+  <si>
+    <t>12 marks</t>
+  </si>
+  <si>
+    <t>10 marks</t>
+  </si>
+  <si>
+    <t>Put each figure and table on its own page in a Word file.</t>
+  </si>
+  <si>
+    <t>1 mark</t>
+  </si>
+  <si>
+    <t>Fig. 2</t>
+  </si>
+  <si>
+    <t>Fig. 4</t>
+  </si>
+  <si>
+    <t>Grade will be scaled to a mark out of 5.</t>
+  </si>
+  <si>
+    <t>Penalty for competing the wring figure or table: 50% of mark on that figure or table.</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Calculate the thickness at which the capacitances are the same.</t>
   </si>
   <si>
     <r>
@@ -123,75 +509,29 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>m)</t>
     </r>
-  </si>
-  <si>
-    <t>(mg/L)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ln</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(mean length) on concentration for both solutions on the same graph.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>You repeated this test eight times for each length of time, then and measured the thickness [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m] of the layer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Plot average thickness vs. temperature.</t>
-  </si>
-  <si>
-    <t>Include best regression line for the relationship.</t>
-  </si>
-  <si>
-    <t>State sample sizes and what the error bars represent.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln(Tal)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln(Nezh)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s. d. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -213,357 +553,87 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>m]</t>
     </r>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <r>
-      <t>You grew a Silver layer on an SiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> substrate by sputtering silver over a range of vacuum presssures [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Torr].</t>
-    </r>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Torr]</t>
-    </r>
-  </si>
-  <si>
-    <t>[ZnO]</t>
-  </si>
-  <si>
-    <t>ZnO concentrations ('[ZnO]') were varied.</t>
-  </si>
-  <si>
-    <t>You repeated each combination eight times.</t>
-  </si>
-  <si>
-    <t>Provide a table that presents mean and standard deviation of the time required for each combination.</t>
-  </si>
-  <si>
-    <t>Include overall means and standard deviations for Processors and Algorithms.</t>
-  </si>
-  <si>
-    <t>Sort the table to put the fastest algorithm in the left column and the fastest processor in the top row.</t>
-  </si>
-  <si>
-    <t>Provide a complete caption.</t>
-  </si>
-  <si>
-    <t>Measurement</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euwe</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anand</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>s. d.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>s. d.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>masque</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>exRay</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bint</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Algorithm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Processor</t>
-  </si>
-  <si>
-    <r>
-      <t>You measured time (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s) required to encrypt a test message using combinations of four algorithms on three processors.</t>
-    </r>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>masque</t>
-  </si>
-  <si>
-    <t>exRay</t>
-  </si>
-  <si>
-    <t>Bint</t>
-  </si>
-  <si>
-    <t>Talj</t>
-  </si>
-  <si>
-    <t>Euwe</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Sort the table to put the fastest processor in the left column and the fastest algorithm in the top row.</t>
-  </si>
-  <si>
-    <t>You measured time (ms) required to calculate the Moore-Penrose pseudo-inverse of a 4 x 7 matrix using combinations of four algorithms on three processors.</t>
-  </si>
-  <si>
-    <t>Bogart</t>
-  </si>
-  <si>
-    <t>Gable</t>
-  </si>
-  <si>
-    <t>Welch</t>
-  </si>
-  <si>
-    <t>Maxwell</t>
-  </si>
-  <si>
-    <t>Heaviside</t>
-  </si>
-  <si>
-    <t>Steinmetz</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>Calculate [ZnO] at which the average crystal length was the same.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plot </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ln</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(capacitance) vs thickness for both capacitors on the same graph.</t>
-    </r>
-  </si>
-  <si>
-    <t>You have measured the power output [mW]of an experimental electrical generator at different rotation speeds [kHz].</t>
-  </si>
-  <si>
-    <t>Calculate the pressure at which average thickness was the greatest.</t>
-  </si>
-  <si>
-    <t>Power output [W]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You Grew Zinc oxide (ZnO) nanorods in two types of solutions of ZnO in ethanol at 194 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°C.</t>
-    </r>
-  </si>
-  <si>
-    <t>The solutions' names are 'Tal' and 'Nezh'.</t>
-  </si>
-  <si>
-    <t>Tal</t>
-  </si>
-  <si>
-    <t>Nezh</t>
-  </si>
-  <si>
-    <t>You allowed the nanorods to grow for 8 h</t>
-  </si>
-  <si>
-    <t>You  measured the change in capacitance [nF] of two experimental organic capacitors as the thickness [nm] of the organic layer increased.</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The process was conducted at 38 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°C.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The process was conducted at 30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°C.</t>
-    </r>
-  </si>
-  <si>
-    <t>If your student number is ODD, do</t>
-  </si>
-  <si>
-    <t>If your student number is EVEN, do</t>
-  </si>
-  <si>
-    <t>Fig. 3</t>
-  </si>
-  <si>
-    <t>Fig. 1</t>
-  </si>
-  <si>
-    <t>12 marks</t>
-  </si>
-  <si>
-    <t>10 marks</t>
-  </si>
-  <si>
-    <t>Put each figure and table on its own page in a Word file.</t>
-  </si>
-  <si>
-    <t>1 mark</t>
-  </si>
-  <si>
-    <t>Fig. 2</t>
-  </si>
-  <si>
-    <t>Fig. 4</t>
-  </si>
-  <si>
-    <t>Grade will be scaled to a mark out of 5.</t>
-  </si>
-  <si>
-    <t>Penalty for competing the wring figure or table: 50% of mark on that figure or table.</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Calculate the thickness at which the capacitances are the same.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -571,7 +641,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -585,7 +655,7 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -593,7 +663,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -609,7 +679,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,7 +694,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -632,8 +702,24 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -645,7 +731,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -662,15 +748,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -696,9 +793,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,8 +840,2753 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ln( Tal )</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.779838095811962E-2"/>
+                  <c:y val="0.18139689435372303"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fig. 1'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fig. 1'!$D$13:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.93609335917033476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2725655957915476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3635373739972745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2441545939587679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5411590716808059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6370530794670737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8594181177018698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0693912058263346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9643112344262046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9373017745187131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1849270495258133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9300710850255671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5152741864043966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4815677485224859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5176964726109912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7040421797046714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5718485799218085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0666566118906897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D739-4C22-BEC8-89F50C5BBE69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ln( Nezh )</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3338748175411369E-2"/>
+                  <c:y val="-2.111063703243991E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fig. 1'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fig. 1'!$E$13:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.50681760236845186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64710324205853842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72270598280148979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.000631880307906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.235471471385307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4182774069729414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5496879080283263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6370530794670737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8809906029559975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9430489167742813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0943301541735866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.224623551524334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0055258587296678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2321626286975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4857396360918922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7350166493320245</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8808824318750488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0860299115347716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9306602768102761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8825635754483532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2116497797764612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D739-4C22-BEC8-89F50C5BBE69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488168880"/>
+        <c:axId val="488170128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488168880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ZnO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [mg/L]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488170128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488170128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ln( Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Length [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>m] )</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488168880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10200524934383207"/>
+                  <c:y val="2.4807888597258677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Fig. 3'!$L$14:$L$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.60481402100149795</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.76554369101779118</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.89217230878985987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75267143277414639</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.91990294519119176</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3143493773400914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.7776108097426192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.74026539642405065</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.93731760130400044</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.78354505750649428</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.53408800772906362</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.92314679222754203</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.94233751915117958</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.2649562386558222</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.96285290376345434</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0790438889524898</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.047814051115123</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.0268085090637462</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.003732320605734</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.97857038581800593</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.0056270254352331</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.6254369900888731</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.86579443287653435</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.51889993530269574</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Fig. 3'!$L$14:$L$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.60481402100149795</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.76554369101779118</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.89217230878985987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75267143277414639</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.91990294519119176</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3143493773400914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.7776108097426192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.74026539642405065</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.93731760130400044</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.78354505750649428</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.53408800772906362</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.92314679222754203</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.94233751915117958</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.2649562386558222</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.96285290376345434</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0790438889524898</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.047814051115123</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.0268085090637462</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.003732320605734</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.97857038581800593</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.0056270254352331</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.6254369900888731</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.86579443287653435</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.51889993530269574</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fig. 3'!$A$14:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fig. 3'!$J$14:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>13.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.232500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.205000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.298749999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.223749999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.31625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.391250000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.466249999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.432500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.074999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.06625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.901250000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.811250000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.462499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.347499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.014999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A725-4C01-A4E3-F83F8BFEE7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="593602400"/>
+        <c:axId val="593603232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="593602400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pressure [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Torr]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593603232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593603232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average Thickness [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593602400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,23 +3661,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -841,23 +3696,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,136 +3871,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1170,22 +4009,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1193,7 +4032,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -1215,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.3</v>
       </c>
@@ -1231,7 +4070,7 @@
         <v>1.4</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1239,22 +4078,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1267,6 +4112,14 @@
       <c r="C13" s="2">
         <v>1.66</v>
       </c>
+      <c r="D13">
+        <f>LN(B13)</f>
+        <v>0.93609335917033476</v>
+      </c>
+      <c r="E13">
+        <f>LN(C13)</f>
+        <v>0.50681760236845186</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1278,6 +4131,14 @@
       <c r="C14" s="2">
         <v>1.91</v>
       </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D33" si="0">LN(B14)</f>
+        <v>1.2725655957915476</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E33" si="1">LN(C14)</f>
+        <v>0.64710324205853842</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1289,6 +4150,14 @@
       <c r="C15" s="2">
         <v>2.06</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.3635373739972745</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.72270598280148979</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1300,8 +4169,16 @@
       <c r="C16" s="2">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.2441545939587679</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.000631880307906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.25</v>
       </c>
@@ -1311,8 +4188,16 @@
       <c r="C17" s="2">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.5411590716808059</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.235471471385307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.4700000000000006</v>
       </c>
@@ -1322,8 +4207,16 @@
       <c r="C18" s="2">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.4182774069729414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.59</v>
       </c>
@@ -1333,8 +4226,16 @@
       <c r="C19" s="2">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.6370530794670737</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.5496879080283263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.7</v>
       </c>
@@ -1344,8 +4245,16 @@
       <c r="C20" s="2">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.8594181177018698</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.6370530794670737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.8599999999999994</v>
       </c>
@@ -1355,8 +4264,16 @@
       <c r="C21" s="2">
         <v>6.56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.0693912058263346</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.8809906029559975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4.96</v>
       </c>
@@ -1366,8 +4283,16 @@
       <c r="C22" s="2">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.9643112344262046</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.9430489167742813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -1377,8 +4302,16 @@
       <c r="C23" s="2">
         <v>8.1199999999999992</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.9373017745187131</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.0943301541735866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.15</v>
       </c>
@@ -1388,8 +4321,16 @@
       <c r="C24" s="2">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.1849270495258133</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.224623551524334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.25</v>
       </c>
@@ -1399,8 +4340,16 @@
       <c r="C25" s="2">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.9300710850255671</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.0055258587296678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.5</v>
       </c>
@@ -1410,8 +4359,16 @@
       <c r="C26" s="2">
         <v>9.32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.5152741864043966</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.2321626286975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.7</v>
       </c>
@@ -1421,8 +4378,16 @@
       <c r="C27" s="2">
         <v>12.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2.4815677485224859</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2.4857396360918922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.71</v>
       </c>
@@ -1432,8 +4397,16 @@
       <c r="C28" s="2">
         <v>15.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.5176964726109912</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2.7350166493320245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.9700000000000006</v>
       </c>
@@ -1443,8 +4416,16 @@
       <c r="C29" s="2">
         <v>17.829999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2.7040421797046714</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2.8808824318750488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6.07</v>
       </c>
@@ -1454,8 +4435,16 @@
       <c r="C30" s="2">
         <v>21.89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.5257286443082556</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>3.0860299115347716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6.12</v>
       </c>
@@ -1465,8 +4454,16 @@
       <c r="C31" s="2">
         <v>18.739999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2.9306602768102761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6.13</v>
       </c>
@@ -1476,8 +4473,16 @@
       <c r="C32" s="2">
         <v>17.86</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.5718485799218085</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2.8825635754483532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6.34</v>
       </c>
@@ -1486,32 +4491,53 @@
       </c>
       <c r="C33" s="2">
         <v>24.82</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3.0666566118906897</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>3.2116497797764612</v>
+      </c>
+      <c r="J33">
+        <f>(2.7802-1.181)</f>
+        <v>1.5991999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>0.9422-0.6369</f>
+        <v>0.30530000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:C11"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1521,7 +4547,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1529,7 +4555,7 @@
         <v>2.1</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -1551,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -1567,7 +4593,7 @@
         <v>2.4</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1581,7 +4607,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1995,35 +5021,38 @@
   <mergeCells count="1">
     <mergeCell ref="B10:C10"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2031,7 +5060,7 @@
         <v>3.1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -2053,13 +5082,13 @@
         <v>3.3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.4</v>
       </c>
@@ -2072,7 +5101,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2080,7 +5109,7 @@
         <v>3.5</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2088,7 +5117,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2100,10 +5129,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2115,7 +5144,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2140,6 +5169,15 @@
       </c>
       <c r="I13" s="7">
         <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2170,9 +5208,18 @@
       <c r="I14">
         <v>13.59</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="J14" s="3">
+        <f>AVERAGE(B14:I14)</f>
+        <v>13.9375</v>
+      </c>
+      <c r="K14" s="3">
+        <f>STDEV(B14:I14)</f>
+        <v>0.30240701050074897</v>
+      </c>
+      <c r="L14" s="3">
+        <f>2*K14</f>
+        <v>0.60481402100149795</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
@@ -2204,9 +5251,18 @@
       <c r="I15">
         <v>14.39</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:J37" si="0">AVERAGE(B15:I15)</f>
+        <v>14.120000000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:K37" si="1">STDEV(B15:I15)</f>
+        <v>0.38277184550889559</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" ref="L15:L37" si="2">2*K15</f>
+        <v>0.76554369101779118</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
@@ -2238,9 +5294,18 @@
       <c r="I16">
         <v>13.36</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>14.232500000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44608615439492993</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89217230878985987</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
@@ -2272,9 +5337,18 @@
       <c r="I17">
         <v>14.43</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>14.205000000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37633571638707319</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75267143277414639</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
@@ -2306,9 +5380,18 @@
       <c r="I18">
         <v>14.24</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>14.298749999999998</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45995147259559588</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91990294519119176</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
@@ -2340,9 +5423,18 @@
       <c r="I19">
         <v>14.98</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>14.1875</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65717468867004569</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3143493773400914</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
@@ -2374,9 +5466,18 @@
       <c r="I20">
         <v>13.79</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>14.223749999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3888054048713096</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7776108097426192</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
@@ -2408,9 +5509,18 @@
       <c r="I21">
         <v>14.29</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>14.31625</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37013269821202532</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74026539642405065</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
@@ -2442,9 +5552,18 @@
       <c r="I22">
         <v>14.370000000000001</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>14.391250000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46865880065200022</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93731760130400044</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
@@ -2476,9 +5595,18 @@
       <c r="I23">
         <v>13.870000000000001</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>14.32</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39177252875324714</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78354505750649428</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
@@ -2510,9 +5638,18 @@
       <c r="I24">
         <v>14.43</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>14.466249999999999</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26704400386453181</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.53408800772906362</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
@@ -2544,9 +5681,18 @@
       <c r="I25">
         <v>14.6</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>14.432500000000001</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46157339611377102</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92314679222754203</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
@@ -2578,9 +5724,18 @@
       <c r="I26">
         <v>14.370000000000001</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>14.155000000000003</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47116875957558979</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94233751915117958</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
@@ -2612,9 +5767,18 @@
       <c r="I27">
         <v>14.22</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63247811932791109</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2649562386558222</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
@@ -2646,9 +5810,18 @@
       <c r="I28">
         <v>14.58</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>14.074999999999999</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48142645188172717</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96285290376345434</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
@@ -2680,9 +5853,18 @@
       <c r="I29">
         <v>13.69</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>14.06625</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53952194447624491</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0790438889524898</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
@@ -2714,9 +5896,18 @@
       <c r="I30">
         <v>14.21</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>14.112500000000001</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52390702555756152</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.047814051115123</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
@@ -2748,9 +5939,18 @@
       <c r="I31">
         <v>13.68</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="J31" s="3">
+        <f t="shared" si="0"/>
+        <v>13.901250000000001</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.51340425453187311</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0268085090637462</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
@@ -2782,9 +5982,18 @@
       <c r="I32">
         <v>14.34</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="3">
+        <f t="shared" si="0"/>
+        <v>13.811250000000001</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50186616030286701</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.003732320605734</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
@@ -2816,9 +6025,18 @@
       <c r="I33">
         <v>13.19</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="J33" s="3">
+        <f t="shared" si="0"/>
+        <v>13.790000000000001</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48928519290900296</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97857038581800593</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
@@ -2850,9 +6068,18 @@
       <c r="I34">
         <v>12.89</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="J34" s="3">
+        <f t="shared" si="0"/>
+        <v>13.462499999999999</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50281351271761654</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0056270254352331</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
@@ -2884,9 +6111,18 @@
       <c r="I35">
         <v>13.6</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="J35" s="3">
+        <f t="shared" si="0"/>
+        <v>13.347499999999998</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31271849504443655</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6254369900888731</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
@@ -2918,9 +6154,18 @@
       <c r="I36">
         <v>12.83</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="J36" s="3">
+        <f t="shared" si="0"/>
+        <v>13.420000000000002</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43289721643826717</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86579443287653435</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
@@ -2952,9 +6197,18 @@
       <c r="I37">
         <v>12.8</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="J37" s="3">
+        <f t="shared" si="0"/>
+        <v>13.014999999999999</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25944996765134787</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51889993530269574</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
@@ -2995,17 +6249,19 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -3015,7 +6271,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3056,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.4000000000000004</v>
       </c>
@@ -3086,7 +6342,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3520,39 +6776,1007 @@
   <mergeCells count="1">
     <mergeCell ref="B11:F11"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26:AA32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="1.75" customWidth="1"/>
+    <col min="7" max="7" width="1.75" customWidth="1"/>
+    <col min="10" max="10" width="1.75" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.875" customWidth="1"/>
+    <col min="22" max="22" width="1.875" customWidth="1"/>
+    <col min="25" max="25" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>215.3</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>244.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>232.8</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>215.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>196.8</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>212.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>221.8</v>
+      </c>
+      <c r="M10" s="3">
+        <v>229.2</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>A10</f>
+        <v>Talj</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>324.3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>312.2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>349.7</v>
+      </c>
+      <c r="L11" s="3">
+        <v>324.3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>359.4</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" ref="A12:A21" si="0">A11</f>
+        <v>Talj</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3">
+        <v>204.8</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>255.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>238.2</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>249</v>
+      </c>
+      <c r="I12" s="3">
+        <v>231.8</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>247.9</v>
+      </c>
+      <c r="L12" s="3">
+        <v>238.2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>229.6</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Talj</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <v>195.2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>241.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>227.5</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>218.8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>218.8</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>218.8</v>
+      </c>
+      <c r="L13" s="3">
+        <v>244.9</v>
+      </c>
+      <c r="M13" s="3">
+        <v>223.7</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="str">
+        <f>B10</f>
+        <v>jump</v>
+      </c>
+      <c r="C14" s="3">
+        <v>187.6</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>178.3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>176.5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>174.6</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>144.1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>175.6</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Euwe</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ref="B15:B21" si="1">B11</f>
+        <v>masque</v>
+      </c>
+      <c r="C15" s="3">
+        <v>280.7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>278.3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>256.5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>301.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>294</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>263.8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>278.3</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Euwe</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>exRay</v>
+      </c>
+      <c r="C16" s="3">
+        <v>166</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>205.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>191.9</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>167.1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>185.4</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>176.8</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Euwe</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>Bint</v>
+      </c>
+      <c r="C17" s="3">
+        <v>195.2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>193.9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>208.8</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>128</v>
+      </c>
+      <c r="I17" s="3">
+        <v>193.9</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>190.2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>152.9</v>
+      </c>
+      <c r="M17" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>jump</v>
+      </c>
+      <c r="C18" s="3">
+        <v>215.3</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>204.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>208.8</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>215.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>212.5</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>230.1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>220.8</v>
+      </c>
+      <c r="M18" s="3">
+        <v>216.2</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Anand</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>masque</v>
+      </c>
+      <c r="C19" s="3">
+        <v>369.1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>358.2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>365.4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>331.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>393.3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>346.1</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Anand</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>exRay</v>
+      </c>
+      <c r="C20" s="3">
+        <v>273.8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>258.7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>259.8</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>259.8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>224.2</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>245.8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>266.3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Anand</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>Bint</v>
+      </c>
+      <c r="C21" s="3">
+        <v>228.7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>264.8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>264.8</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>263.5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>237.4</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
+        <v>230</v>
+      </c>
+      <c r="L21" s="3">
+        <v>248.6</v>
+      </c>
+      <c r="M21" s="3">
+        <v>262.3</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="P26" s="8"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="20"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+    </row>
+    <row r="27" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="P27" s="8"/>
+      <c r="R27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" s="21"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA27" s="21"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="X28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA28" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="16">
+        <f>AVERAGE(C10:M10)</f>
+        <v>221.07499999999999</v>
+      </c>
+      <c r="F29" s="17">
+        <f>STDEV(C10:M10)</f>
+        <v>14.644135832670845</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="16">
+        <f>AVERAGE(C14:M14)</f>
+        <v>169.32499999999999</v>
+      </c>
+      <c r="I29" s="17">
+        <f>STDEV(C14:M14)</f>
+        <v>14.141706302382936</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16">
+        <f>AVERAGE(C18:M18)</f>
+        <v>215.39999999999998</v>
+      </c>
+      <c r="L29" s="18">
+        <f>STDEV(C18:M18)</f>
+        <v>7.7765214404826093</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="19"/>
+      <c r="T29" s="16">
+        <v>169.32499999999999</v>
+      </c>
+      <c r="U29" s="17">
+        <v>14.141706302382936</v>
+      </c>
+      <c r="V29" s="17"/>
+      <c r="W29" s="16">
+        <v>215.39999999999998</v>
+      </c>
+      <c r="X29" s="18">
+        <v>7.7765214404826093</v>
+      </c>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="16">
+        <v>221.07499999999999</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>14.644135832670845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="16">
+        <f>AVERAGE(C11:M11)</f>
+        <v>332.91250000000002</v>
+      </c>
+      <c r="F30" s="17">
+        <f>STDEV(C11:M11)</f>
+        <v>17.859726241702909</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16">
+        <f>AVERAGE(C15:M15)</f>
+        <v>282.375</v>
+      </c>
+      <c r="I30" s="17">
+        <f>STDEV(C15:M15)</f>
+        <v>17.34826051387121</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16">
+        <f>AVERAGE(C19:M19)</f>
+        <v>358.47500000000002</v>
+      </c>
+      <c r="L30" s="17">
+        <f>STDEV(C19:M19)</f>
+        <v>18.266968628022077</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="19"/>
+      <c r="T30" s="16">
+        <v>182.72500000000002</v>
+      </c>
+      <c r="U30" s="17">
+        <v>27.482864791408563</v>
+      </c>
+      <c r="V30" s="17"/>
+      <c r="W30" s="16">
+        <v>250.01249999999999</v>
+      </c>
+      <c r="X30" s="17">
+        <v>15.973320390129112</v>
+      </c>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="16">
+        <v>223.6</v>
+      </c>
+      <c r="AA30" s="17">
+        <v>15.356897007998905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="16">
+        <f>AVERAGE(C12:M12)</f>
+        <v>236.875</v>
+      </c>
+      <c r="F31" s="17">
+        <f>STDEV(C12:M12)</f>
+        <v>15.704662637937449</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16">
+        <f>AVERAGE(C16:M16)</f>
+        <v>186.22499999999999</v>
+      </c>
+      <c r="I31" s="17">
+        <f>STDEV(C16:M16)</f>
+        <v>15.056631192173862</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16">
+        <f>AVERAGE(C20:M20)</f>
+        <v>256.16249999999997</v>
+      </c>
+      <c r="L31" s="17">
+        <f>STDEV(C20:M20)</f>
+        <v>15.109971872905659</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="S31" s="19"/>
+      <c r="T31" s="16">
+        <v>186.22499999999999</v>
+      </c>
+      <c r="U31" s="17">
+        <v>15.056631192173862</v>
+      </c>
+      <c r="V31" s="17"/>
+      <c r="W31" s="16">
+        <v>256.16249999999997</v>
+      </c>
+      <c r="X31" s="17">
+        <v>15.109971872905659</v>
+      </c>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="16">
+        <v>236.875</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>15.704662637937449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16">
+        <f>AVERAGE(C13:M13)</f>
+        <v>223.6</v>
+      </c>
+      <c r="F32" s="17">
+        <f>STDEV(C13:M13)</f>
+        <v>15.356897007998905</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="16">
+        <f>AVERAGE(C17:M17)</f>
+        <v>182.72500000000002</v>
+      </c>
+      <c r="I32" s="17">
+        <f>STDEV(C17:M17)</f>
+        <v>27.482864791408563</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="16">
+        <f>AVERAGE(C21:M21)</f>
+        <v>250.01249999999999</v>
+      </c>
+      <c r="L32" s="17">
+        <f>STDEV(C21:M21)</f>
+        <v>15.973320390129112</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" s="19"/>
+      <c r="T32" s="16">
+        <v>282.375</v>
+      </c>
+      <c r="U32" s="17">
+        <v>17.34826051387121</v>
+      </c>
+      <c r="V32" s="17"/>
+      <c r="W32" s="16">
+        <v>358.47500000000002</v>
+      </c>
+      <c r="X32" s="17">
+        <v>18.266968628022077</v>
+      </c>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="16">
+        <v>332.91250000000002</v>
+      </c>
+      <c r="AA32" s="17">
+        <v>17.859726241702909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="E26:L26"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -3560,10 +7784,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -3571,10 +7795,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -3582,10 +7806,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -3598,7 +7822,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -3611,10 +7835,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -3644,582 +7868,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3">
-        <v>215.3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>244.9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>232.8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>215.3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>196.8</v>
-      </c>
-      <c r="H10" s="3">
-        <v>212.5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>221.8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>229.2</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>A10</f>
-        <v>Talj</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="D11" s="3">
-        <v>324.3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>352.1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>312.2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>321.89999999999998</v>
-      </c>
-      <c r="H11" s="3">
-        <v>349.7</v>
-      </c>
-      <c r="I11" s="3">
-        <v>324.3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>359.4</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f t="shared" ref="A12:A21" si="0">A11</f>
-        <v>Talj</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3">
-        <v>204.8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>255.5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>238.2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>249</v>
-      </c>
-      <c r="G12" s="3">
-        <v>231.8</v>
-      </c>
-      <c r="H12" s="3">
-        <v>247.9</v>
-      </c>
-      <c r="I12" s="3">
-        <v>238.2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>229.6</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Talj</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3">
-        <v>195.2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>241.1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>227.5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>218.8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>218.8</v>
-      </c>
-      <c r="H13" s="3">
-        <v>218.8</v>
-      </c>
-      <c r="I13" s="3">
-        <v>244.9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>223.7</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="str">
-        <f>B10</f>
-        <v>jump</v>
-      </c>
-      <c r="C14" s="3">
-        <v>187.6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>176.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="G14" s="3">
-        <v>174.6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>144.1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="J14" s="3">
-        <v>175.6</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Euwe</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" ref="B15:B21" si="1">B11</f>
-        <v>masque</v>
-      </c>
-      <c r="C15" s="3">
-        <v>280.7</v>
-      </c>
-      <c r="D15" s="3">
-        <v>278.3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>256.5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>301.3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>294</v>
-      </c>
-      <c r="H15" s="3">
-        <v>306.10000000000002</v>
-      </c>
-      <c r="I15" s="3">
-        <v>263.8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>278.3</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Euwe</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>exRay</v>
-      </c>
-      <c r="C16" s="3">
-        <v>166</v>
-      </c>
-      <c r="D16" s="3">
-        <v>205.9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>191.9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>167.1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>185.4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>196.2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>176.8</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Euwe</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>Bint</v>
-      </c>
-      <c r="C17" s="3">
-        <v>195.2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>193.9</v>
-      </c>
-      <c r="E17" s="3">
-        <v>208.8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>128</v>
-      </c>
-      <c r="G17" s="3">
-        <v>193.9</v>
-      </c>
-      <c r="H17" s="3">
-        <v>190.2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>152.9</v>
-      </c>
-      <c r="J17" s="3">
-        <v>198.9</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>jump</v>
-      </c>
-      <c r="C18" s="3">
-        <v>215.3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>204.2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>208.8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>215.3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>212.5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>230.1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>220.8</v>
-      </c>
-      <c r="J18" s="3">
-        <v>216.2</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>Anand</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>masque</v>
-      </c>
-      <c r="C19" s="3">
-        <v>369.1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>358.2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>352.1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>352.1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>365.4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>331.5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>393.3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>346.1</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>Anand</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>exRay</v>
-      </c>
-      <c r="C20" s="3">
-        <v>273.8</v>
-      </c>
-      <c r="D20" s="3">
-        <v>258.7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>259.8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>259.8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>224.2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>245.8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>266.3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>260.89999999999998</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>Anand</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>Bint</v>
-      </c>
-      <c r="C21" s="3">
-        <v>228.7</v>
-      </c>
-      <c r="D21" s="3">
-        <v>264.8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>264.8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>263.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>237.4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>230</v>
-      </c>
-      <c r="I21" s="3">
-        <v>248.6</v>
-      </c>
-      <c r="J21" s="3">
-        <v>262.3</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M28" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C8:J8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6.1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6.2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>6.3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6.4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>8</v>
-      </c>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>194.4</v>
@@ -4254,7 +7906,7 @@
         <v>Bogart</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3">
         <v>230</v>
@@ -4288,7 +7940,7 @@
         <v>Bogart</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>192.2</v>
@@ -4322,7 +7974,7 @@
         <v>Bogart</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>151.19999999999999</v>
@@ -4352,7 +8004,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="str">
         <f>B10</f>
@@ -4491,7 +8143,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
@@ -4645,6 +8297,7 @@
   <mergeCells count="1">
     <mergeCell ref="C8:J8"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>